--- a/biggest_loser/biggest_loser.xlsx
+++ b/biggest_loser/biggest_loser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">contestant_gender</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">prop_initial_weight_lost_week1</t>
   </si>
   <si>
+    <t xml:space="preserve">winner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t xml:space="preserve">Bob</t>
   </si>
   <si>
+    <t xml:space="preserve">lost</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">30 to 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">won</t>
   </si>
   <si>
     <t xml:space="preserve">40 to 49</t>
@@ -452,13 +461,16 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>21</v>
@@ -476,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>12.57</v>
@@ -484,13 +496,16 @@
       <c r="J2" t="n">
         <v>2.857142857</v>
       </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>22</v>
@@ -508,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
         <v>27.44</v>
@@ -516,13 +531,16 @@
       <c r="J3" t="n">
         <v>2.790697674</v>
       </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>25</v>
@@ -540,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
         <v>19.68</v>
@@ -548,13 +566,16 @@
       <c r="J4" t="n">
         <v>7.096774194</v>
       </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>26</v>
@@ -572,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
         <v>24.15</v>
@@ -580,13 +601,16 @@
       <c r="J5" t="n">
         <v>4.237288136</v>
       </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>26</v>
@@ -604,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
         <v>13.17</v>
@@ -612,13 +636,16 @@
       <c r="J6" t="n">
         <v>1.796407186</v>
       </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>28</v>
@@ -636,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
         <v>32.64</v>
@@ -644,13 +671,16 @@
       <c r="J7" t="n">
         <v>6.198347107</v>
       </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>29</v>
@@ -668,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
         <v>19.45</v>
@@ -676,13 +706,16 @@
       <c r="J8" t="n">
         <v>2.981651376</v>
       </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>31</v>
@@ -700,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
         <v>32.29</v>
@@ -708,13 +741,16 @@
       <c r="J9" t="n">
         <v>5.829596413</v>
       </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>34</v>
@@ -732,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>23.37</v>
@@ -740,13 +776,16 @@
       <c r="J10" t="n">
         <v>7.662835249</v>
       </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>36</v>
@@ -764,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
         <v>36.97</v>
@@ -772,13 +811,16 @@
       <c r="J11" t="n">
         <v>5.757575758</v>
       </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>39</v>
@@ -796,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
         <v>28.4</v>
@@ -804,13 +846,16 @@
       <c r="J12" t="n">
         <v>4</v>
       </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>40</v>
@@ -828,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>31.28</v>
@@ -836,13 +881,16 @@
       <c r="J13" t="n">
         <v>5.286343612</v>
       </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>24</v>
@@ -860,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
         <v>42.27</v>
@@ -868,13 +916,16 @@
       <c r="J14" t="n">
         <v>7.216494845</v>
       </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
         <v>24</v>
@@ -892,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>34.08</v>
@@ -900,13 +951,16 @@
       <c r="J15" t="n">
         <v>7.116104869</v>
       </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>26</v>
@@ -924,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
         <v>34.67</v>
@@ -932,13 +986,16 @@
       <c r="J16" t="n">
         <v>8</v>
       </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
@@ -956,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
         <v>46.31</v>
@@ -964,13 +1021,16 @@
       <c r="J17" t="n">
         <v>8.259587021</v>
       </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>28</v>
@@ -988,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
         <v>41.85</v>
@@ -996,13 +1056,16 @@
       <c r="J18" t="n">
         <v>8.810572687</v>
       </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>28</v>
@@ -1020,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
         <v>34.09</v>
@@ -1028,13 +1091,16 @@
       <c r="J19" t="n">
         <v>5</v>
       </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>28</v>
@@ -1052,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
         <v>7.37</v>
@@ -1060,13 +1126,16 @@
       <c r="J20" t="n">
         <v>6.912442396</v>
       </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
         <v>29</v>
@@ -1084,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
         <v>42.02</v>
@@ -1092,13 +1161,16 @@
       <c r="J21" t="n">
         <v>5.836575875</v>
       </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
         <v>30</v>
@@ -1116,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n">
         <v>37.99</v>
@@ -1124,13 +1196,16 @@
       <c r="J22" t="n">
         <v>6.986899563</v>
       </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
         <v>36</v>
@@ -1148,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
         <v>46.09</v>
@@ -1156,13 +1231,16 @@
       <c r="J23" t="n">
         <v>6.424581006</v>
       </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
         <v>37</v>
@@ -1180,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
         <v>46.13</v>
@@ -1188,13 +1266,16 @@
       <c r="J24" t="n">
         <v>5.486284289</v>
       </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
         <v>37</v>
@@ -1212,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
         <v>29.14</v>
@@ -1220,13 +1301,16 @@
       <c r="J25" t="n">
         <v>6.115107914</v>
       </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
         <v>43</v>
@@ -1244,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" t="n">
         <v>41.35</v>
@@ -1252,13 +1336,16 @@
       <c r="J26" t="n">
         <v>4.864864865</v>
       </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
         <v>25</v>
@@ -1276,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
         <v>40</v>
@@ -1284,13 +1371,16 @@
       <c r="J27" t="n">
         <v>5.479452055</v>
       </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
         <v>25</v>
@@ -1308,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
         <v>27.53</v>
@@ -1316,13 +1406,16 @@
       <c r="J28" t="n">
         <v>4.048582996</v>
       </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
         <v>27</v>
@@ -1340,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" t="n">
         <v>45.04</v>
@@ -1348,13 +1441,16 @@
       <c r="J29" t="n">
         <v>4.580152672</v>
       </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
         <v>27</v>
@@ -1372,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
         <v>40.77</v>
@@ -1380,13 +1476,16 @@
       <c r="J30" t="n">
         <v>6.153846154</v>
       </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
         <v>27</v>
@@ -1404,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
         <v>20</v>
@@ -1412,13 +1511,16 @@
       <c r="J31" t="n">
         <v>4.705882353</v>
       </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
         <v>31</v>
@@ -1436,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" t="n">
         <v>29.91</v>
@@ -1444,13 +1546,16 @@
       <c r="J32" t="n">
         <v>5.607476636</v>
       </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n">
         <v>32</v>
@@ -1468,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" t="n">
         <v>27.12</v>
@@ -1476,13 +1581,16 @@
       <c r="J33" t="n">
         <v>4.661016949</v>
       </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
         <v>32</v>
@@ -1500,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I34" t="n">
         <v>40.82</v>
@@ -1508,13 +1616,16 @@
       <c r="J34" t="n">
         <v>3.265306122</v>
       </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
         <v>33</v>
@@ -1532,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
         <v>50.65</v>
@@ -1540,13 +1651,16 @@
       <c r="J35" t="n">
         <v>7.467532468</v>
       </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
         <v>35</v>
@@ -1564,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" t="n">
         <v>52.58</v>
@@ -1572,13 +1686,16 @@
       <c r="J36" t="n">
         <v>3.931203931</v>
       </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
         <v>35</v>
@@ -1596,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
         <v>17.08</v>
@@ -1604,13 +1721,16 @@
       <c r="J37" t="n">
         <v>4.702970297</v>
       </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38" t="n">
         <v>40</v>
@@ -1628,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
         <v>42.02</v>
@@ -1636,13 +1756,16 @@
       <c r="J38" t="n">
         <v>4.560260586</v>
       </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C39" t="n">
         <v>43</v>
@@ -1660,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I39" t="n">
         <v>44.97</v>
@@ -1668,13 +1791,16 @@
       <c r="J39" t="n">
         <v>5.027932961</v>
       </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>21</v>
@@ -1692,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I40" t="n">
         <v>37.92</v>
@@ -1700,13 +1826,16 @@
       <c r="J40" t="n">
         <v>2.684563758</v>
       </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>24</v>
@@ -1724,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n">
         <v>43.38</v>
@@ -1732,13 +1861,16 @@
       <c r="J41" t="n">
         <v>4.637681159</v>
       </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>25</v>
@@ -1756,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" t="n">
         <v>50.12</v>
@@ -1764,13 +1896,16 @@
       <c r="J42" t="n">
         <v>5.225653207</v>
       </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>26</v>
@@ -1788,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
         <v>37.63</v>
@@ -1796,13 +1931,16 @@
       <c r="J43" t="n">
         <v>2.867383513</v>
       </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>27</v>
@@ -1820,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="n">
         <v>43.11</v>
@@ -1828,13 +1966,16 @@
       <c r="J44" t="n">
         <v>8.888888889</v>
       </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
         <v>27</v>
@@ -1852,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" t="n">
         <v>35.98</v>
@@ -1860,13 +2001,16 @@
       <c r="J45" t="n">
         <v>6.451612903</v>
       </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>28</v>
@@ -1884,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I46" t="n">
         <v>41.18</v>
@@ -1892,13 +2036,16 @@
       <c r="J46" t="n">
         <v>4.31372549</v>
       </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>28</v>
@@ -1916,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>42.42</v>
@@ -1924,13 +2071,16 @@
       <c r="J47" t="n">
         <v>3.367003367</v>
       </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>29</v>
@@ -1948,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I48" t="n">
         <v>35.26</v>
@@ -1956,13 +2106,16 @@
       <c r="J48" t="n">
         <v>4.335260116</v>
       </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>29</v>
@@ -1980,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" t="n">
         <v>35.56</v>
@@ -1988,13 +2141,16 @@
       <c r="J49" t="n">
         <v>4.010695187</v>
       </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
         <v>30</v>
@@ -2012,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I50" t="n">
         <v>28.47</v>
@@ -2020,13 +2176,16 @@
       <c r="J50" t="n">
         <v>2.372881356</v>
       </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
         <v>31</v>
@@ -2044,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" t="n">
         <v>38.04</v>
@@ -2052,13 +2211,16 @@
       <c r="J51" t="n">
         <v>5.434782609</v>
       </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
         <v>34</v>
@@ -2076,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I52" t="n">
         <v>44.5</v>
@@ -2084,13 +2246,16 @@
       <c r="J52" t="n">
         <v>0.917431193</v>
       </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
         <v>34</v>
@@ -2108,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" t="n">
         <v>22.86</v>
@@ -2116,13 +2281,16 @@
       <c r="J53" t="n">
         <v>4.642857143</v>
       </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
         <v>34</v>
@@ -2140,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I54" t="n">
         <v>21.57</v>
@@ -2148,13 +2316,16 @@
       <c r="J54" t="n">
         <v>3.529411765</v>
       </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
         <v>40</v>
@@ -2172,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I55" t="n">
         <v>49.1</v>
@@ -2180,13 +2351,16 @@
       <c r="J55" t="n">
         <v>6.28742515</v>
       </c>
+      <c r="K55" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
         <v>40</v>
@@ -2204,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
         <v>51.52</v>
@@ -2212,13 +2386,16 @@
       <c r="J56" t="n">
         <v>3.047091413</v>
       </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C57" t="n">
         <v>62</v>
@@ -2236,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I57" t="n">
         <v>37.04</v>
@@ -2244,13 +2421,16 @@
       <c r="J57" t="n">
         <v>10.43771044</v>
       </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
         <v>21</v>
@@ -2268,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" t="n">
         <v>43.87</v>
@@ -2276,13 +2456,16 @@
       <c r="J58" t="n">
         <v>8.064516129</v>
       </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="n">
         <v>22</v>
@@ -2300,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
         <v>25.79</v>
@@ -2308,13 +2491,16 @@
       <c r="J59" t="n">
         <v>4.524886878</v>
       </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
         <v>22</v>
@@ -2332,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
         <v>25.2</v>
@@ -2340,13 +2526,16 @@
       <c r="J60" t="n">
         <v>4.724409449</v>
       </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
         <v>23</v>
@@ -2364,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
         <v>29.29</v>
@@ -2372,13 +2561,16 @@
       <c r="J61" t="n">
         <v>4.184100418</v>
       </c>
+      <c r="K61" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
         <v>27</v>
@@ -2396,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I62" t="n">
         <v>45.94</v>
@@ -2404,13 +2596,16 @@
       <c r="J62" t="n">
         <v>6.007067138</v>
       </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
         <v>28</v>
@@ -2428,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I63" t="n">
         <v>27.76</v>
@@ -2436,13 +2631,16 @@
       <c r="J63" t="n">
         <v>4.100946372</v>
       </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
         <v>29</v>
@@ -2460,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I64" t="n">
         <v>31.37</v>
@@ -2468,13 +2666,16 @@
       <c r="J64" t="n">
         <v>6.862745098</v>
       </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
         <v>31</v>
@@ -2492,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
         <v>45.26</v>
@@ -2500,13 +2701,16 @@
       <c r="J65" t="n">
         <v>5.964912281</v>
       </c>
+      <c r="K65" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
         <v>31</v>
@@ -2524,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
         <v>20.22</v>
@@ -2532,13 +2736,16 @@
       <c r="J66" t="n">
         <v>2.621722846</v>
       </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
         <v>32</v>
@@ -2556,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" t="n">
         <v>47.86</v>
@@ -2564,13 +2771,16 @@
       <c r="J67" t="n">
         <v>8.11965812</v>
       </c>
+      <c r="K67" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
         <v>35</v>
@@ -2588,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" t="n">
         <v>45.18</v>
@@ -2596,13 +2806,16 @@
       <c r="J68" t="n">
         <v>5.509641873</v>
       </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
         <v>35</v>
@@ -2620,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I69" t="n">
         <v>39.37</v>
@@ -2628,13 +2841,16 @@
       <c r="J69" t="n">
         <v>5.774278215</v>
       </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C70" t="n">
         <v>36</v>
@@ -2652,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I70" t="n">
         <v>29.95</v>
@@ -2660,13 +2876,16 @@
       <c r="J70" t="n">
         <v>6.451612903</v>
       </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" t="n">
         <v>38</v>
@@ -2684,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" t="n">
         <v>35.15</v>
@@ -2692,13 +2911,16 @@
       <c r="J71" t="n">
         <v>4.436860068</v>
       </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C72" t="n">
         <v>39</v>
@@ -2716,7 +2938,7 @@
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n">
         <v>30.96</v>
@@ -2724,13 +2946,16 @@
       <c r="J72" t="n">
         <v>6.651376147</v>
       </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
         <v>40</v>
@@ -2748,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I73" t="n">
         <v>40.22</v>
@@ -2756,13 +2981,16 @@
       <c r="J73" t="n">
         <v>4.79704797</v>
       </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
         <v>49</v>
@@ -2780,7 +3008,7 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n">
         <v>36.18</v>
@@ -2788,13 +3016,16 @@
       <c r="J74" t="n">
         <v>6.097560976</v>
       </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C75" t="n">
         <v>53</v>
@@ -2812,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" t="n">
         <v>28.74</v>
@@ -2820,13 +3051,16 @@
       <c r="J75" t="n">
         <v>6.130268199</v>
       </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
         <v>60</v>
@@ -2844,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" t="n">
         <v>19.56</v>
@@ -2852,13 +3086,16 @@
       <c r="J76" t="n">
         <v>4.645476773</v>
       </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
         <v>23</v>
@@ -2876,7 +3113,7 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I77" t="n">
         <v>24.37</v>
@@ -2884,13 +3121,16 @@
       <c r="J77" t="n">
         <v>5.042016807</v>
       </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
         <v>24</v>
@@ -2908,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I78" t="n">
         <v>29.36</v>
@@ -2916,13 +3156,16 @@
       <c r="J78" t="n">
         <v>4.587155963</v>
       </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
         <v>26</v>
@@ -2940,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I79" t="n">
         <v>45.45</v>
@@ -2948,13 +3191,16 @@
       <c r="J79" t="n">
         <v>7.024793388</v>
       </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
         <v>26</v>
@@ -2972,7 +3218,7 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I80" t="n">
         <v>43.51</v>
@@ -2980,13 +3226,16 @@
       <c r="J80" t="n">
         <v>7.112970711</v>
       </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" t="n">
         <v>30</v>
@@ -3004,7 +3253,7 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" t="n">
         <v>46.94</v>
@@ -3012,13 +3261,16 @@
       <c r="J81" t="n">
         <v>4.081632653</v>
       </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C82" t="n">
         <v>31</v>
@@ -3036,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" t="n">
         <v>41.59</v>
@@ -3044,13 +3296,16 @@
       <c r="J82" t="n">
         <v>5.074626866</v>
       </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C83" t="n">
         <v>33</v>
@@ -3068,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" t="n">
         <v>29.41</v>
@@ -3076,13 +3331,16 @@
       <c r="J83" t="n">
         <v>4.07239819</v>
       </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C84" t="n">
         <v>36</v>
@@ -3100,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" t="n">
         <v>34.31</v>
@@ -3108,13 +3366,16 @@
       <c r="J84" t="n">
         <v>8.211143695</v>
       </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C85" t="n">
         <v>37</v>
@@ -3132,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" t="n">
         <v>41.06</v>
@@ -3140,13 +3401,16 @@
       <c r="J85" t="n">
         <v>7.723577236</v>
       </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
         <v>39</v>
@@ -3164,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" t="n">
         <v>23.53</v>
@@ -3172,13 +3436,16 @@
       <c r="J86" t="n">
         <v>5.588235294</v>
       </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
         <v>40</v>
@@ -3196,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" t="n">
         <v>45.85</v>
@@ -3204,13 +3471,16 @@
       <c r="J87" t="n">
         <v>6.986899563</v>
       </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
         <v>41</v>
@@ -3228,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I88" t="n">
         <v>45.62</v>
@@ -3236,13 +3506,16 @@
       <c r="J88" t="n">
         <v>6.948640483</v>
       </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
         <v>42</v>
@@ -3260,7 +3533,7 @@
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I89" t="n">
         <v>24.84</v>
@@ -3268,13 +3541,16 @@
       <c r="J89" t="n">
         <v>7.643312102</v>
       </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
         <v>46</v>
@@ -3292,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I90" t="n">
         <v>39.7</v>
@@ -3300,13 +3576,16 @@
       <c r="J90" t="n">
         <v>5.243445693</v>
       </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
         <v>51</v>
@@ -3324,7 +3603,7 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I91" t="n">
         <v>34.26</v>
@@ -3332,13 +3611,16 @@
       <c r="J91" t="n">
         <v>5.555555556</v>
       </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
         <v>51</v>
@@ -3356,7 +3638,7 @@
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I92" t="n">
         <v>30.26</v>
@@ -3364,13 +3646,16 @@
       <c r="J92" t="n">
         <v>4.473684211</v>
       </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="n">
         <v>18</v>
@@ -3388,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
         <v>53.35</v>
@@ -3396,13 +3681,16 @@
       <c r="J93" t="n">
         <v>5.670103093</v>
       </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
         <v>19</v>
@@ -3420,7 +3708,7 @@
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I94" t="n">
         <v>31.28</v>
@@ -3428,13 +3716,16 @@
       <c r="J94" t="n">
         <v>6.607929515</v>
       </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="n">
         <v>23</v>
@@ -3452,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I95" t="n">
         <v>52.72</v>
@@ -3460,13 +3751,16 @@
       <c r="J95" t="n">
         <v>7.142857143</v>
       </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
         <v>23</v>
@@ -3484,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I96" t="n">
         <v>10.94</v>
@@ -3492,13 +3786,16 @@
       <c r="J96" t="n">
         <v>4.071246819</v>
       </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
         <v>24</v>
@@ -3516,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I97" t="n">
         <v>30.18</v>
@@ -3524,13 +3821,16 @@
       <c r="J97" t="n">
         <v>4.561403509</v>
       </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="n">
         <v>26</v>
@@ -3548,7 +3848,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n">
         <v>37.09</v>
@@ -3556,13 +3856,16 @@
       <c r="J98" t="n">
         <v>4.67032967</v>
       </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
         <v>27</v>
@@ -3580,7 +3883,7 @@
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I99" t="n">
         <v>37.38</v>
@@ -3588,13 +3891,16 @@
       <c r="J99" t="n">
         <v>4.854368932</v>
       </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="n">
         <v>27</v>
@@ -3612,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I100" t="n">
         <v>31.78</v>
@@ -3620,13 +3926,16 @@
       <c r="J100" t="n">
         <v>3.835616438</v>
       </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
         <v>28</v>
@@ -3644,7 +3953,7 @@
         <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I101" t="n">
         <v>46.39</v>
@@ -3652,13 +3961,16 @@
       <c r="J101" t="n">
         <v>5.277777778</v>
       </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
         <v>28</v>
@@ -3676,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I102" t="n">
         <v>39.25</v>
@@ -3684,13 +3996,16 @@
       <c r="J102" t="n">
         <v>6.182795699</v>
       </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
         <v>28</v>
@@ -3708,7 +4023,7 @@
         <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I103" t="n">
         <v>22.09</v>
@@ -3716,13 +4031,16 @@
       <c r="J103" t="n">
         <v>5.220883534</v>
       </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
         <v>29</v>
@@ -3740,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I104" t="n">
         <v>32.51</v>
@@ -3748,13 +4066,16 @@
       <c r="J104" t="n">
         <v>4.593639576</v>
       </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" t="n">
         <v>30</v>
@@ -3772,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I105" t="n">
         <v>34.98</v>
@@ -3780,13 +4101,16 @@
       <c r="J105" t="n">
         <v>4.562737643</v>
       </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106" t="n">
         <v>31</v>
@@ -3804,7 +4128,7 @@
         <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I106" t="n">
         <v>35.7</v>
@@ -3812,13 +4136,16 @@
       <c r="J106" t="n">
         <v>4.461942257</v>
       </c>
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107" t="n">
         <v>36</v>
@@ -3836,7 +4163,7 @@
         <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I107" t="n">
         <v>33.77</v>
@@ -3844,13 +4171,16 @@
       <c r="J107" t="n">
         <v>2.90237467</v>
       </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C108" t="n">
         <v>37</v>
@@ -3868,7 +4198,7 @@
         <v>7</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I108" t="n">
         <v>45.72</v>
@@ -3876,13 +4206,16 @@
       <c r="J108" t="n">
         <v>6.691449814</v>
       </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
         <v>41</v>
@@ -3900,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I109" t="n">
         <v>25.89</v>
@@ -3908,13 +4241,16 @@
       <c r="J109" t="n">
         <v>4.207119741</v>
       </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C110" t="n">
         <v>48</v>
@@ -3932,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I110" t="n">
         <v>54.47</v>
@@ -3940,13 +4276,16 @@
       <c r="J110" t="n">
         <v>4.6692607</v>
       </c>
+      <c r="K110" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C111" t="n">
         <v>48</v>
@@ -3964,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I111" t="n">
         <v>32.42</v>
@@ -3972,13 +4311,16 @@
       <c r="J111" t="n">
         <v>4.09556314</v>
       </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C112" t="n">
         <v>54</v>
@@ -3996,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I112" t="n">
         <v>44.65</v>
@@ -4004,13 +4346,16 @@
       <c r="J112" t="n">
         <v>7.441860465</v>
       </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
         <v>63</v>
@@ -4028,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I113" t="n">
         <v>47.97</v>
@@ -4036,13 +4381,16 @@
       <c r="J113" t="n">
         <v>6.775067751</v>
       </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
         <v>63</v>
@@ -4060,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I114" t="n">
         <v>34.3</v>
@@ -4068,13 +4416,16 @@
       <c r="J114" t="n">
         <v>3.719008264</v>
       </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="n">
         <v>19</v>
@@ -4092,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I115" t="n">
         <v>34.8</v>
@@ -4100,13 +4451,16 @@
       <c r="J115" t="n">
         <v>2.4</v>
       </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="n">
         <v>20</v>
@@ -4124,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I116" t="n">
         <v>35.58</v>
@@ -4132,13 +4486,16 @@
       <c r="J116" t="n">
         <v>3.846153846</v>
       </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
         <v>20</v>
@@ -4156,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I117" t="n">
         <v>29.45</v>
@@ -4164,13 +4521,16 @@
       <c r="J117" t="n">
         <v>4.207119741</v>
       </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
         <v>23</v>
@@ -4188,7 +4548,7 @@
         <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I118" t="n">
         <v>41.42</v>
@@ -4196,13 +4556,16 @@
       <c r="J118" t="n">
         <v>4.904632153</v>
       </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="n">
         <v>25</v>
@@ -4220,7 +4583,7 @@
         <v>8</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I119" t="n">
         <v>49.82</v>
@@ -4228,13 +4591,16 @@
       <c r="J119" t="n">
         <v>6.451612903</v>
       </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
         <v>28</v>
@@ -4252,7 +4618,7 @@
         <v>8</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I120" t="n">
         <v>31.23</v>
@@ -4260,13 +4626,16 @@
       <c r="J120" t="n">
         <v>3.162055336</v>
       </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
         <v>29</v>
@@ -4284,7 +4653,7 @@
         <v>8</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I121" t="n">
         <v>34.91</v>
@@ -4292,13 +4661,16 @@
       <c r="J121" t="n">
         <v>4.954954955</v>
       </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C122" t="n">
         <v>30</v>
@@ -4316,7 +4688,7 @@
         <v>8</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I122" t="n">
         <v>36.13</v>
@@ -4324,13 +4696,16 @@
       <c r="J122" t="n">
         <v>3.571428571</v>
       </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" t="n">
         <v>31</v>
@@ -4348,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I123" t="n">
         <v>52.94</v>
@@ -4356,13 +4731,16 @@
       <c r="J123" t="n">
         <v>6.334841629</v>
       </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C124" t="n">
         <v>35</v>
@@ -4380,7 +4758,7 @@
         <v>8</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I124" t="n">
         <v>40.49</v>
@@ -4388,13 +4766,16 @@
       <c r="J124" t="n">
         <v>6.072874494</v>
       </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C125" t="n">
         <v>37</v>
@@ -4412,7 +4793,7 @@
         <v>8</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I125" t="n">
         <v>47.2</v>
@@ -4420,13 +4801,16 @@
       <c r="J125" t="n">
         <v>4.8</v>
       </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C126" t="n">
         <v>39</v>
@@ -4444,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I126" t="n">
         <v>55.58</v>
@@ -4452,13 +4836,16 @@
       <c r="J126" t="n">
         <v>5.581395349</v>
       </c>
+      <c r="K126" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
         <v>40</v>
@@ -4476,7 +4863,7 @@
         <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I127" t="n">
         <v>44.23</v>
@@ -4484,13 +4871,16 @@
       <c r="J127" t="n">
         <v>3.194103194</v>
       </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C128" t="n">
         <v>44</v>
@@ -4508,7 +4898,7 @@
         <v>8</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I128" t="n">
         <v>35.69</v>
@@ -4516,13 +4906,16 @@
       <c r="J128" t="n">
         <v>5.846153846</v>
       </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C129" t="n">
         <v>49</v>
@@ -4540,7 +4933,7 @@
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I129" t="n">
         <v>34.08</v>
@@ -4548,13 +4941,16 @@
       <c r="J129" t="n">
         <v>3.745318352</v>
       </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C130" t="n">
         <v>56</v>
@@ -4572,7 +4968,7 @@
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I130" t="n">
         <v>25.92</v>
@@ -4580,13 +4976,16 @@
       <c r="J130" t="n">
         <v>5.352112676</v>
       </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="n">
         <v>24</v>
@@ -4604,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I131" t="n">
         <v>38.17</v>
@@ -4612,13 +5011,16 @@
       <c r="J131" t="n">
         <v>4.838709677</v>
       </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="n">
         <v>24</v>
@@ -4636,7 +5038,7 @@
         <v>9</v>
       </c>
       <c r="H132" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I132" t="n">
         <v>28.19</v>
@@ -4644,13 +5046,16 @@
       <c r="J132" t="n">
         <v>4.697986577</v>
       </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="n">
         <v>25</v>
@@ -4668,7 +5073,7 @@
         <v>9</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I133" t="n">
         <v>48.55</v>
@@ -4676,13 +5081,16 @@
       <c r="J133" t="n">
         <v>8.38150289</v>
       </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="n">
         <v>27</v>
@@ -4700,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I134" t="n">
         <v>48.93</v>
@@ -4708,13 +5116,16 @@
       <c r="J134" t="n">
         <v>5.614973262</v>
       </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
         <v>28</v>
@@ -4732,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I135" t="n">
         <v>19.62</v>
@@ -4740,13 +5151,16 @@
       <c r="J135" t="n">
         <v>6.037735849</v>
       </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C136" t="n">
         <v>29</v>
@@ -4764,7 +5178,7 @@
         <v>9</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I136" t="n">
         <v>53.35</v>
@@ -4772,13 +5186,16 @@
       <c r="J136" t="n">
         <v>7.196029777</v>
       </c>
+      <c r="K136" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C137" t="n">
         <v>29</v>
@@ -4796,7 +5213,7 @@
         <v>9</v>
       </c>
       <c r="H137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I137" t="n">
         <v>37.5</v>
@@ -4804,13 +5221,16 @@
       <c r="J137" t="n">
         <v>6.818181818</v>
       </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C138" t="n">
         <v>30</v>
@@ -4828,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="H138" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I138" t="n">
         <v>30.79</v>
@@ -4836,13 +5256,16 @@
       <c r="J138" t="n">
         <v>4.752066116</v>
       </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C139" t="n">
         <v>30</v>
@@ -4860,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I139" t="n">
         <v>26.39</v>
@@ -4868,13 +5291,16 @@
       <c r="J139" t="n">
         <v>4.742268041</v>
       </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C140" t="n">
         <v>31</v>
@@ -4892,7 +5318,7 @@
         <v>9</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I140" t="n">
         <v>50.19</v>
@@ -4900,13 +5326,16 @@
       <c r="J140" t="n">
         <v>6.463878327</v>
       </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C141" t="n">
         <v>38</v>
@@ -4924,7 +5353,7 @@
         <v>9</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I141" t="n">
         <v>35.07</v>
@@ -4932,13 +5361,16 @@
       <c r="J141" t="n">
         <v>5.753424658</v>
       </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C142" t="n">
         <v>39</v>
@@ -4956,7 +5388,7 @@
         <v>9</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I142" t="n">
         <v>38.63</v>
@@ -4964,13 +5396,16 @@
       <c r="J142" t="n">
         <v>8.154506438</v>
       </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C143" t="n">
         <v>46</v>
@@ -4988,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="H143" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I143" t="n">
         <v>45.76</v>
@@ -4996,13 +5431,16 @@
       <c r="J143" t="n">
         <v>7.263922518</v>
       </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C144" t="n">
         <v>48</v>
@@ -5020,7 +5458,7 @@
         <v>9</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I144" t="n">
         <v>37.92</v>
@@ -5028,13 +5466,16 @@
       <c r="J144" t="n">
         <v>5.416666667</v>
       </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C145" t="n">
         <v>50</v>
@@ -5052,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="H145" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I145" t="n">
         <v>33.48</v>
@@ -5060,13 +5501,16 @@
       <c r="J145" t="n">
         <v>6.167400881</v>
       </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C146" t="n">
         <v>51</v>
@@ -5084,7 +5528,7 @@
         <v>9</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I146" t="n">
         <v>45.41</v>
@@ -5092,13 +5536,16 @@
       <c r="J146" t="n">
         <v>7.798165138</v>
       </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C147" t="n">
         <v>51</v>
@@ -5116,7 +5563,7 @@
         <v>9</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I147" t="n">
         <v>34.52</v>
@@ -5124,13 +5571,16 @@
       <c r="J147" t="n">
         <v>4.62633452</v>
       </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C148" t="n">
         <v>55</v>
@@ -5148,7 +5598,7 @@
         <v>9</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I148" t="n">
         <v>30.04</v>
@@ -5156,13 +5606,16 @@
       <c r="J148" t="n">
         <v>9.465020576</v>
       </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
         <v>22</v>
@@ -5180,7 +5633,7 @@
         <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I149" t="n">
         <v>22.98</v>
@@ -5188,13 +5641,16 @@
       <c r="J149" t="n">
         <v>5.279503106</v>
       </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
         <v>26</v>
@@ -5212,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I150" t="n">
         <v>45.27</v>
@@ -5220,13 +5676,16 @@
       <c r="J150" t="n">
         <v>8.457711443</v>
       </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" t="n">
         <v>27</v>
@@ -5244,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I151" t="n">
         <v>38.37</v>
@@ -5252,13 +5711,16 @@
       <c r="J151" t="n">
         <v>6.976744186</v>
       </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
         <v>27</v>
@@ -5276,7 +5738,7 @@
         <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I152" t="n">
         <v>32.62</v>
@@ -5284,13 +5746,16 @@
       <c r="J152" t="n">
         <v>4.964539007</v>
       </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
         <v>28</v>
@@ -5308,7 +5773,7 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I153" t="n">
         <v>45.25</v>
@@ -5316,13 +5781,16 @@
       <c r="J153" t="n">
         <v>5.5</v>
       </c>
+      <c r="K153" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="n">
         <v>28</v>
@@ -5340,7 +5808,7 @@
         <v>10</v>
       </c>
       <c r="H154" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I154" t="n">
         <v>44.99</v>
@@ -5348,13 +5816,16 @@
       <c r="J154" t="n">
         <v>8.130081301</v>
       </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="n">
         <v>28</v>
@@ -5372,7 +5843,7 @@
         <v>10</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I155" t="n">
         <v>23.9</v>
@@ -5380,13 +5851,16 @@
       <c r="J155" t="n">
         <v>5.147058824</v>
       </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="n">
         <v>29</v>
@@ -5404,7 +5878,7 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I156" t="n">
         <v>36.75</v>
@@ -5412,13 +5886,16 @@
       <c r="J156" t="n">
         <v>6.41025641</v>
       </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C157" t="n">
         <v>31</v>
@@ -5436,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I157" t="n">
         <v>29.1</v>
@@ -5444,13 +5921,16 @@
       <c r="J157" t="n">
         <v>4.918032787</v>
       </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
         <v>31</v>
@@ -5468,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I158" t="n">
         <v>50.59</v>
@@ -5476,13 +5956,16 @@
       <c r="J158" t="n">
         <v>9.73871734</v>
       </c>
+      <c r="K158" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C159" t="n">
         <v>31</v>
@@ -5500,7 +5983,7 @@
         <v>10</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I159" t="n">
         <v>33.68</v>
@@ -5508,13 +5991,16 @@
       <c r="J159" t="n">
         <v>5.555555556</v>
       </c>
+      <c r="K159" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C160" t="n">
         <v>32</v>
@@ -5532,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="H160" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I160" t="n">
         <v>32.32</v>
@@ -5540,13 +6026,16 @@
       <c r="J160" t="n">
         <v>8.563535912</v>
       </c>
+      <c r="K160" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C161" t="n">
         <v>35</v>
@@ -5564,7 +6053,7 @@
         <v>10</v>
       </c>
       <c r="H161" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I161" t="n">
         <v>27.71</v>
@@ -5572,13 +6061,16 @@
       <c r="J161" t="n">
         <v>5.194805195</v>
       </c>
+      <c r="K161" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C162" t="n">
         <v>43</v>
@@ -5596,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I162" t="n">
         <v>44.14</v>
@@ -5604,13 +6096,16 @@
       <c r="J162" t="n">
         <v>7.356948229</v>
       </c>
+      <c r="K162" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C163" t="n">
         <v>54</v>
@@ -5628,7 +6123,7 @@
         <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I163" t="n">
         <v>47.14</v>
@@ -5636,13 +6131,16 @@
       <c r="J163" t="n">
         <v>10.28571429</v>
       </c>
+      <c r="K163" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C164" t="n">
         <v>58</v>
@@ -5660,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I164" t="n">
         <v>27.38</v>
@@ -5668,13 +6166,16 @@
       <c r="J164" t="n">
         <v>6.08365019</v>
       </c>
+      <c r="K164" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="n">
         <v>20</v>
@@ -5692,7 +6193,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I165" t="n">
         <v>23.17</v>
@@ -5700,13 +6201,16 @@
       <c r="J165" t="n">
         <v>6.43776824</v>
       </c>
+      <c r="K165" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" t="n">
         <v>21</v>
@@ -5724,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I166" t="n">
         <v>43.94</v>
@@ -5732,13 +6236,16 @@
       <c r="J166" t="n">
         <v>6.818181818</v>
       </c>
+      <c r="K166" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" t="n">
         <v>21</v>
@@ -5756,7 +6263,7 @@
         <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I167" t="n">
         <v>34.06</v>
@@ -5764,13 +6271,16 @@
       <c r="J167" t="n">
         <v>4.643962848</v>
       </c>
+      <c r="K167" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
         <v>26</v>
@@ -5788,7 +6298,7 @@
         <v>11</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I168" t="n">
         <v>45.49</v>
@@ -5796,13 +6306,16 @@
       <c r="J168" t="n">
         <v>5.098039216</v>
       </c>
+      <c r="K168" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169" t="n">
         <v>26</v>
@@ -5820,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I169" t="n">
         <v>27.91</v>
@@ -5828,13 +6341,16 @@
       <c r="J169" t="n">
         <v>3.986710963</v>
       </c>
+      <c r="K169" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C170" t="n">
         <v>27</v>
@@ -5852,7 +6368,7 @@
         <v>11</v>
       </c>
       <c r="H170" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I170" t="n">
         <v>40.61</v>
@@ -5860,13 +6376,16 @@
       <c r="J170" t="n">
         <v>5.363984674</v>
       </c>
+      <c r="K170" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C171" t="n">
         <v>27</v>
@@ -5884,7 +6403,7 @@
         <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I171" t="n">
         <v>21.28</v>
@@ -5892,13 +6411,16 @@
       <c r="J171" t="n">
         <v>2.517162471</v>
       </c>
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" t="n">
         <v>28</v>
@@ -5916,7 +6438,7 @@
         <v>11</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I172" t="n">
         <v>41.01</v>
@@ -5924,13 +6446,16 @@
       <c r="J172" t="n">
         <v>7.194244604</v>
       </c>
+      <c r="K172" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C173" t="n">
         <v>32</v>
@@ -5948,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I173" t="n">
         <v>48.39</v>
@@ -5956,13 +6481,16 @@
       <c r="J173" t="n">
         <v>6.451612903</v>
       </c>
+      <c r="K173" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C174" t="n">
         <v>34</v>
@@ -5980,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I174" t="n">
         <v>32.15</v>
@@ -5988,13 +6516,16 @@
       <c r="J174" t="n">
         <v>6.114398422</v>
       </c>
+      <c r="K174" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C175" t="n">
         <v>35</v>
@@ -6012,7 +6543,7 @@
         <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I175" t="n">
         <v>49.42</v>
@@ -6020,13 +6551,16 @@
       <c r="J175" t="n">
         <v>6.130268199</v>
       </c>
+      <c r="K175" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C176" t="n">
         <v>39</v>
@@ -6044,7 +6578,7 @@
         <v>11</v>
       </c>
       <c r="H176" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I176" t="n">
         <v>47.4</v>
@@ -6052,13 +6586,16 @@
       <c r="J176" t="n">
         <v>7.397260274</v>
       </c>
+      <c r="K176" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C177" t="n">
         <v>47</v>
@@ -6076,7 +6613,7 @@
         <v>11</v>
       </c>
       <c r="H177" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I177" t="n">
         <v>22.08</v>
@@ -6084,13 +6621,16 @@
       <c r="J177" t="n">
         <v>9.318181818</v>
       </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C178" t="n">
         <v>49</v>
@@ -6108,7 +6648,7 @@
         <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I178" t="n">
         <v>41.9</v>
@@ -6116,13 +6656,16 @@
       <c r="J178" t="n">
         <v>3.448275862</v>
       </c>
+      <c r="K178" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C179" t="n">
         <v>49</v>
@@ -6140,7 +6683,7 @@
         <v>11</v>
       </c>
       <c r="H179" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I179" t="n">
         <v>36.13</v>
@@ -6148,13 +6691,16 @@
       <c r="J179" t="n">
         <v>5.882352941</v>
       </c>
+      <c r="K179" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C180" t="n">
         <v>50</v>
@@ -6172,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="H180" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I180" t="n">
         <v>42.75</v>
@@ -6180,13 +6726,16 @@
       <c r="J180" t="n">
         <v>3.529411765</v>
       </c>
+      <c r="K180" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C181" t="n">
         <v>53</v>
@@ -6204,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="H181" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I181" t="n">
         <v>45.25</v>
@@ -6212,13 +6761,16 @@
       <c r="J181" t="n">
         <v>6.5</v>
       </c>
+      <c r="K181" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C182" t="n">
         <v>54</v>
@@ -6236,7 +6788,7 @@
         <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I182" t="n">
         <v>42.07</v>
@@ -6244,13 +6796,16 @@
       <c r="J182" t="n">
         <v>6.796116505</v>
       </c>
+      <c r="K182" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C183" t="n">
         <v>54</v>
@@ -6268,7 +6823,7 @@
         <v>11</v>
       </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I183" t="n">
         <v>43.21</v>
@@ -6276,13 +6831,16 @@
       <c r="J183" t="n">
         <v>6.620209059</v>
       </c>
+      <c r="K183" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C184" t="n">
         <v>59</v>
@@ -6300,7 +6858,7 @@
         <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I184" t="n">
         <v>48.83</v>
@@ -6308,13 +6866,16 @@
       <c r="J184" t="n">
         <v>7.421875</v>
       </c>
+      <c r="K184" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C185" t="n">
         <v>61</v>
@@ -6332,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I185" t="n">
         <v>28.33</v>
@@ -6340,13 +6901,16 @@
       <c r="J185" t="n">
         <v>2.389078498</v>
       </c>
+      <c r="K185" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C186" t="n">
         <v>24</v>
@@ -6364,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I186" t="n">
         <v>32.22</v>
@@ -6372,13 +6936,16 @@
       <c r="J186" t="n">
         <v>5.925925926</v>
       </c>
+      <c r="K186" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" t="n">
         <v>26</v>
@@ -6396,7 +6963,7 @@
         <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I187" t="n">
         <v>31.49</v>
@@ -6404,13 +6971,16 @@
       <c r="J187" t="n">
         <v>5.905511811</v>
       </c>
+      <c r="K187" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C188" t="n">
         <v>26</v>
@@ -6428,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I188" t="n">
         <v>39.02</v>
@@ -6436,13 +7006,16 @@
       <c r="J188" t="n">
         <v>5.167958656</v>
       </c>
+      <c r="K188" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C189" t="n">
         <v>27</v>
@@ -6460,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I189" t="n">
         <v>43.38</v>
@@ -6468,13 +7041,16 @@
       <c r="J189" t="n">
         <v>4.788732394</v>
       </c>
+      <c r="K189" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190" t="n">
         <v>27</v>
@@ -6492,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="H190" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I190" t="n">
         <v>43.19</v>
@@ -6500,13 +7076,16 @@
       <c r="J190" t="n">
         <v>4.929577465</v>
       </c>
+      <c r="K190" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C191" t="n">
         <v>39</v>
@@ -6524,7 +7103,7 @@
         <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I191" t="n">
         <v>43.94</v>
@@ -6532,13 +7111,16 @@
       <c r="J191" t="n">
         <v>5.757575758</v>
       </c>
+      <c r="K191" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C192" t="n">
         <v>40</v>
@@ -6556,7 +7138,7 @@
         <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I192" t="n">
         <v>49.44</v>
@@ -6564,13 +7146,16 @@
       <c r="J192" t="n">
         <v>8.314606742</v>
       </c>
+      <c r="K192" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C193" t="n">
         <v>41</v>
@@ -6588,7 +7173,7 @@
         <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I193" t="n">
         <v>38.27</v>
@@ -6596,13 +7181,16 @@
       <c r="J193" t="n">
         <v>5.776173285</v>
       </c>
+      <c r="K193" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C194" t="n">
         <v>44</v>
@@ -6620,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I194" t="n">
         <v>45.19</v>
@@ -6628,13 +7216,16 @@
       <c r="J194" t="n">
         <v>7.158836689</v>
       </c>
+      <c r="K194" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C195" t="n">
         <v>46</v>
@@ -6652,7 +7243,7 @@
         <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I195" t="n">
         <v>38.22</v>
@@ -6660,13 +7251,16 @@
       <c r="J195" t="n">
         <v>6.32183908</v>
       </c>
+      <c r="K195" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C196" t="n">
         <v>51</v>
@@ -6684,7 +7278,7 @@
         <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I196" t="n">
         <v>36.97</v>
@@ -6692,13 +7286,16 @@
       <c r="J196" t="n">
         <v>4.201680672</v>
       </c>
+      <c r="K196" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C197" t="n">
         <v>60</v>
@@ -6716,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I197" t="n">
         <v>13.81</v>
@@ -6724,13 +7321,16 @@
       <c r="J197" t="n">
         <v>2.510460251</v>
       </c>
+      <c r="K197" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C198" t="n">
         <v>62</v>
@@ -6748,7 +7348,7 @@
         <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I198" t="n">
         <v>27.83</v>
@@ -6756,13 +7356,16 @@
       <c r="J198" t="n">
         <v>3.883495146</v>
       </c>
+      <c r="K198" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C199" t="n">
         <v>63</v>
@@ -6780,7 +7383,7 @@
         <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I199" t="n">
         <v>30.31</v>
@@ -6788,13 +7391,16 @@
       <c r="J199" t="n">
         <v>1.57480315</v>
       </c>
+      <c r="K199" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C200" t="n">
         <v>66</v>
@@ -6812,7 +7418,7 @@
         <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I200" t="n">
         <v>29.57</v>
@@ -6820,13 +7426,16 @@
       <c r="J200" t="n">
         <v>5.182926829</v>
       </c>
+      <c r="K200" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C201" t="n">
         <v>19</v>
@@ -6844,7 +7453,7 @@
         <v>13</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I201" t="n">
         <v>28.53</v>
@@ -6852,13 +7461,16 @@
       <c r="J201" t="n">
         <v>3.324099723</v>
       </c>
+      <c r="K201" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C202" t="n">
         <v>21</v>
@@ -6876,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I202" t="n">
         <v>29.34</v>
@@ -6884,13 +7496,16 @@
       <c r="J202" t="n">
         <v>2.702702703</v>
       </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C203" t="n">
         <v>22</v>
@@ -6908,7 +7523,7 @@
         <v>13</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I203" t="n">
         <v>51.16</v>
@@ -6916,13 +7531,16 @@
       <c r="J203" t="n">
         <v>3.341902314</v>
       </c>
+      <c r="K203" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C204" t="n">
         <v>23</v>
@@ -6940,7 +7558,7 @@
         <v>13</v>
       </c>
       <c r="H204" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I204" t="n">
         <v>39.12</v>
@@ -6948,13 +7566,16 @@
       <c r="J204" t="n">
         <v>3.06122449</v>
       </c>
+      <c r="K204" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C205" t="n">
         <v>25</v>
@@ -6972,7 +7593,7 @@
         <v>13</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I205" t="n">
         <v>38.49</v>
@@ -6980,13 +7601,16 @@
       <c r="J205" t="n">
         <v>5.857740586</v>
       </c>
+      <c r="K205" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C206" t="n">
         <v>26</v>
@@ -7004,7 +7628,7 @@
         <v>13</v>
       </c>
       <c r="H206" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I206" t="n">
         <v>36.18</v>
@@ -7012,13 +7636,16 @@
       <c r="J206" t="n">
         <v>3.658536585</v>
       </c>
+      <c r="K206" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C207" t="n">
         <v>29</v>
@@ -7036,7 +7663,7 @@
         <v>13</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I207" t="n">
         <v>38.64</v>
@@ -7044,13 +7671,16 @@
       <c r="J207" t="n">
         <v>3.787878788</v>
       </c>
+      <c r="K207" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C208" t="n">
         <v>34</v>
@@ -7068,7 +7698,7 @@
         <v>13</v>
       </c>
       <c r="H208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I208" t="n">
         <v>35.1</v>
@@ -7076,13 +7706,16 @@
       <c r="J208" t="n">
         <v>3.787878788</v>
       </c>
+      <c r="K208" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C209" t="n">
         <v>38</v>
@@ -7100,7 +7733,7 @@
         <v>13</v>
       </c>
       <c r="H209" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I209" t="n">
         <v>46.83</v>
@@ -7108,13 +7741,16 @@
       <c r="J209" t="n">
         <v>5.158730159</v>
       </c>
+      <c r="K209" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C210" t="n">
         <v>41</v>
@@ -7132,7 +7768,7 @@
         <v>13</v>
       </c>
       <c r="H210" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I210" t="n">
         <v>44.69</v>
@@ -7140,13 +7776,16 @@
       <c r="J210" t="n">
         <v>3.631284916</v>
       </c>
+      <c r="K210" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C211" t="n">
         <v>42</v>
@@ -7164,7 +7803,7 @@
         <v>13</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I211" t="n">
         <v>32.08</v>
@@ -7172,13 +7811,16 @@
       <c r="J211" t="n">
         <v>3.333333333</v>
       </c>
+      <c r="K211" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C212" t="n">
         <v>48</v>
@@ -7196,7 +7838,7 @@
         <v>13</v>
       </c>
       <c r="H212" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I212" t="n">
         <v>32.42</v>
@@ -7204,13 +7846,16 @@
       <c r="J212" t="n">
         <v>4.109589041</v>
       </c>
+      <c r="K212" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C213" t="n">
         <v>57</v>
@@ -7228,7 +7873,7 @@
         <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I213" t="n">
         <v>27.02</v>
@@ -7236,13 +7881,16 @@
       <c r="J213" t="n">
         <v>2.795031056</v>
       </c>
+      <c r="K213" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C214" t="n">
         <v>63</v>
@@ -7260,7 +7908,7 @@
         <v>13</v>
       </c>
       <c r="H214" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I214" t="n">
         <v>28.76</v>
@@ -7268,13 +7916,16 @@
       <c r="J214" t="n">
         <v>4.575163399</v>
       </c>
+      <c r="K214" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C215" t="n">
         <v>63</v>
@@ -7292,7 +7943,7 @@
         <v>13</v>
       </c>
       <c r="H215" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I215" t="n">
         <v>25.81</v>
@@ -7300,13 +7951,16 @@
       <c r="J215" t="n">
         <v>2.304147465</v>
       </c>
+      <c r="K215" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C216" t="n">
         <v>21</v>
@@ -7324,7 +7978,7 @@
         <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I216" t="n">
         <v>42.07</v>
@@ -7332,13 +7986,16 @@
       <c r="J216" t="n">
         <v>6.707317073</v>
       </c>
+      <c r="K216" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C217" t="n">
         <v>24</v>
@@ -7356,7 +8013,7 @@
         <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I217" t="n">
         <v>46.65</v>
@@ -7364,13 +8021,16 @@
       <c r="J217" t="n">
         <v>7.474226804</v>
       </c>
+      <c r="K217" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C218" t="n">
         <v>24</v>
@@ -7388,7 +8048,7 @@
         <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I218" t="n">
         <v>35</v>
@@ -7396,13 +8056,16 @@
       <c r="J218" t="n">
         <v>3.75</v>
       </c>
+      <c r="K218" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C219" t="n">
         <v>25</v>
@@ -7420,7 +8083,7 @@
         <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I219" t="n">
         <v>35.58</v>
@@ -7428,13 +8091,16 @@
       <c r="J219" t="n">
         <v>7.116104869</v>
       </c>
+      <c r="K219" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C220" t="n">
         <v>25</v>
@@ -7452,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I220" t="n">
         <v>27.58</v>
@@ -7460,13 +8126,16 @@
       <c r="J220" t="n">
         <v>5.571030641</v>
       </c>
+      <c r="K220" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C221" t="n">
         <v>26</v>
@@ -7484,7 +8153,7 @@
         <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I221" t="n">
         <v>46.9</v>
@@ -7492,13 +8161,16 @@
       <c r="J221" t="n">
         <v>7.364341085</v>
       </c>
+      <c r="K221" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C222" t="n">
         <v>27</v>
@@ -7516,7 +8188,7 @@
         <v>14</v>
       </c>
       <c r="H222" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I222" t="n">
         <v>27</v>
@@ -7524,13 +8196,16 @@
       <c r="J222" t="n">
         <v>5.063291139</v>
       </c>
+      <c r="K222" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C223" t="n">
         <v>31</v>
@@ -7548,7 +8223,7 @@
         <v>14</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I223" t="n">
         <v>29.26</v>
@@ -7556,13 +8231,16 @@
       <c r="J223" t="n">
         <v>3.989361702</v>
       </c>
+      <c r="K223" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C224" t="n">
         <v>34</v>
@@ -7580,7 +8258,7 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I224" t="n">
         <v>30.63</v>
@@ -7588,13 +8266,16 @@
       <c r="J224" t="n">
         <v>4.72972973</v>
       </c>
+      <c r="K224" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C225" t="n">
         <v>37</v>
@@ -7612,7 +8293,7 @@
         <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I225" t="n">
         <v>43.9</v>
@@ -7620,13 +8301,16 @@
       <c r="J225" t="n">
         <v>6.504065041</v>
       </c>
+      <c r="K225" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C226" t="n">
         <v>43</v>
@@ -7644,7 +8328,7 @@
         <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I226" t="n">
         <v>40.38</v>
@@ -7652,13 +8336,16 @@
       <c r="J226" t="n">
         <v>7.142857143</v>
       </c>
+      <c r="K226" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C227" t="n">
         <v>43</v>
@@ -7676,7 +8363,7 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I227" t="n">
         <v>29.96</v>
@@ -7684,13 +8371,16 @@
       <c r="J227" t="n">
         <v>4.219409283</v>
       </c>
+      <c r="K227" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C228" t="n">
         <v>47</v>
@@ -7708,7 +8398,7 @@
         <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I228" t="n">
         <v>46.12</v>
@@ -7716,13 +8406,16 @@
       <c r="J228" t="n">
         <v>6.12244898</v>
       </c>
+      <c r="K228" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C229" t="n">
         <v>51</v>
@@ -7740,7 +8433,7 @@
         <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I229" t="n">
         <v>33.22</v>
@@ -7748,13 +8441,16 @@
       <c r="J229" t="n">
         <v>6.51465798</v>
       </c>
+      <c r="K229" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C230" t="n">
         <v>24</v>
@@ -7772,7 +8468,7 @@
         <v>15</v>
       </c>
       <c r="H230" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I230" t="n">
         <v>59.62</v>
@@ -7780,13 +8476,16 @@
       <c r="J230" t="n">
         <v>8.076923077</v>
       </c>
+      <c r="K230" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C231" t="n">
         <v>24</v>
@@ -7804,7 +8503,7 @@
         <v>15</v>
       </c>
       <c r="H231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I231" t="n">
         <v>27.35</v>
@@ -7812,13 +8511,16 @@
       <c r="J231" t="n">
         <v>4.558404558</v>
       </c>
+      <c r="K231" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C232" t="n">
         <v>26</v>
@@ -7836,7 +8538,7 @@
         <v>15</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I232" t="n">
         <v>20.1</v>
@@ -7844,13 +8546,16 @@
       <c r="J232" t="n">
         <v>4.218362283</v>
       </c>
+      <c r="K232" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C233" t="n">
         <v>28</v>
@@ -7868,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="H233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I233" t="n">
         <v>52.51</v>
@@ -7876,13 +8581,16 @@
       <c r="J233" t="n">
         <v>5.586592179</v>
       </c>
+      <c r="K233" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C234" t="n">
         <v>28</v>
@@ -7900,7 +8608,7 @@
         <v>15</v>
       </c>
       <c r="H234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I234" t="n">
         <v>39.42</v>
@@ -7908,13 +8616,16 @@
       <c r="J234" t="n">
         <v>4.979253112</v>
       </c>
+      <c r="K234" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C235" t="n">
         <v>30</v>
@@ -7932,7 +8643,7 @@
         <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I235" t="n">
         <v>44.58</v>
@@ -7940,13 +8651,16 @@
       <c r="J235" t="n">
         <v>3.614457831</v>
       </c>
+      <c r="K235" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C236" t="n">
         <v>30</v>
@@ -7964,7 +8678,7 @@
         <v>15</v>
       </c>
       <c r="H236" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I236" t="n">
         <v>42.08</v>
@@ -7972,13 +8686,16 @@
       <c r="J236" t="n">
         <v>3.376623377</v>
       </c>
+      <c r="K236" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C237" t="n">
         <v>32</v>
@@ -7996,7 +8713,7 @@
         <v>15</v>
       </c>
       <c r="H237" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I237" t="n">
         <v>34.8</v>
@@ -8004,13 +8721,16 @@
       <c r="J237" t="n">
         <v>4.8</v>
       </c>
+      <c r="K237" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C238" t="n">
         <v>35</v>
@@ -8028,7 +8748,7 @@
         <v>15</v>
       </c>
       <c r="H238" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I238" t="n">
         <v>25.76</v>
@@ -8036,13 +8756,16 @@
       <c r="J238" t="n">
         <v>4.545454545</v>
       </c>
+      <c r="K238" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C239" t="n">
         <v>38</v>
@@ -8060,7 +8783,7 @@
         <v>15</v>
       </c>
       <c r="H239" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I239" t="n">
         <v>38.38</v>
@@ -8068,13 +8791,16 @@
       <c r="J239" t="n">
         <v>7.744107744</v>
       </c>
+      <c r="K239" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C240" t="n">
         <v>38</v>
@@ -8092,7 +8818,7 @@
         <v>15</v>
       </c>
       <c r="H240" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I240" t="n">
         <v>37.36</v>
@@ -8100,13 +8826,16 @@
       <c r="J240" t="n">
         <v>6.460674157</v>
       </c>
+      <c r="K240" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C241" t="n">
         <v>40</v>
@@ -8124,7 +8853,7 @@
         <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I241" t="n">
         <v>33.21</v>
@@ -8132,13 +8861,16 @@
       <c r="J241" t="n">
         <v>6.106870229</v>
       </c>
+      <c r="K241" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C242" t="n">
         <v>41</v>
@@ -8156,7 +8888,7 @@
         <v>15</v>
       </c>
       <c r="H242" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I242" t="n">
         <v>54.86</v>
@@ -8164,13 +8896,16 @@
       <c r="J242" t="n">
         <v>4.388714734</v>
       </c>
+      <c r="K242" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C243" t="n">
         <v>42</v>
@@ -8188,7 +8923,7 @@
         <v>15</v>
       </c>
       <c r="H243" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I243" t="n">
         <v>39.1</v>
@@ -8196,13 +8931,16 @@
       <c r="J243" t="n">
         <v>4.135338346</v>
       </c>
+      <c r="K243" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C244" t="n">
         <v>43</v>
@@ -8220,7 +8958,7 @@
         <v>15</v>
       </c>
       <c r="H244" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I244" t="n">
         <v>54.28</v>
@@ -8228,13 +8966,16 @@
       <c r="J244" t="n">
         <v>9.290953545</v>
       </c>
+      <c r="K244" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C245" t="n">
         <v>18</v>
@@ -8252,7 +8993,7 @@
         <v>16</v>
       </c>
       <c r="H245" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I245" t="n">
         <v>38.64</v>
@@ -8260,13 +9001,16 @@
       <c r="J245" t="n">
         <v>6.374501992</v>
       </c>
+      <c r="K245" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C246" t="n">
         <v>22</v>
@@ -8284,7 +9028,7 @@
         <v>16</v>
       </c>
       <c r="H246" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I246" t="n">
         <v>42.6</v>
@@ -8292,13 +9036,16 @@
       <c r="J246" t="n">
         <v>3.571428571</v>
       </c>
+      <c r="K246" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C247" t="n">
         <v>26</v>
@@ -8316,7 +9063,7 @@
         <v>16</v>
       </c>
       <c r="H247" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I247" t="n">
         <v>49.27</v>
@@ -8324,13 +9071,16 @@
       <c r="J247" t="n">
         <v>6.832298137</v>
       </c>
+      <c r="K247" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C248" t="n">
         <v>26</v>
@@ -8348,7 +9098,7 @@
         <v>16</v>
       </c>
       <c r="H248" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I248" t="n">
         <v>20.82</v>
@@ -8356,13 +9106,16 @@
       <c r="J248" t="n">
         <v>2.052785924</v>
       </c>
+      <c r="K248" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C249" t="n">
         <v>28</v>
@@ -8380,7 +9133,7 @@
         <v>16</v>
       </c>
       <c r="H249" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I249" t="n">
         <v>33.21</v>
@@ -8388,13 +9141,16 @@
       <c r="J249" t="n">
         <v>5</v>
       </c>
+      <c r="K249" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C250" t="n">
         <v>31</v>
@@ -8412,7 +9168,7 @@
         <v>16</v>
       </c>
       <c r="H250" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I250" t="n">
         <v>40.16</v>
@@ -8420,13 +9176,16 @@
       <c r="J250" t="n">
         <v>5.958549223</v>
       </c>
+      <c r="K250" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C251" t="n">
         <v>32</v>
@@ -8444,7 +9203,7 @@
         <v>16</v>
       </c>
       <c r="H251" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I251" t="n">
         <v>44.27</v>
@@ -8452,13 +9211,16 @@
       <c r="J251" t="n">
         <v>6.811145511</v>
       </c>
+      <c r="K251" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C252" t="n">
         <v>32</v>
@@ -8476,7 +9238,7 @@
         <v>16</v>
       </c>
       <c r="H252" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I252" t="n">
         <v>18.46</v>
@@ -8484,13 +9246,16 @@
       <c r="J252" t="n">
         <v>2.307692308</v>
       </c>
+      <c r="K252" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C253" t="n">
         <v>33</v>
@@ -8508,7 +9273,7 @@
         <v>16</v>
       </c>
       <c r="H253" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I253" t="n">
         <v>50.89</v>
@@ -8516,13 +9281,16 @@
       <c r="J253" t="n">
         <v>5.952380952</v>
       </c>
+      <c r="K253" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C254" t="n">
         <v>36</v>
@@ -8540,7 +9308,7 @@
         <v>16</v>
       </c>
       <c r="H254" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I254" t="n">
         <v>23.71</v>
@@ -8548,13 +9316,16 @@
       <c r="J254" t="n">
         <v>1.804123711</v>
       </c>
+      <c r="K254" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C255" t="n">
         <v>36</v>
@@ -8572,7 +9343,7 @@
         <v>16</v>
       </c>
       <c r="H255" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I255" t="n">
         <v>22.68</v>
@@ -8580,13 +9351,16 @@
       <c r="J255" t="n">
         <v>2.749140893</v>
       </c>
+      <c r="K255" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C256" t="n">
         <v>39</v>
@@ -8604,7 +9378,7 @@
         <v>16</v>
       </c>
       <c r="H256" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I256" t="n">
         <v>50.88</v>
@@ -8612,13 +9386,16 @@
       <c r="J256" t="n">
         <v>8.127208481</v>
       </c>
+      <c r="K256" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C257" t="n">
         <v>41</v>
@@ -8636,7 +9413,7 @@
         <v>16</v>
       </c>
       <c r="H257" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I257" t="n">
         <v>26.86</v>
@@ -8644,13 +9421,16 @@
       <c r="J257" t="n">
         <v>5.785123967</v>
       </c>
+      <c r="K257" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C258" t="n">
         <v>43</v>
@@ -8668,7 +9448,7 @@
         <v>16</v>
       </c>
       <c r="H258" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I258" t="n">
         <v>28.69</v>
@@ -8676,13 +9456,16 @@
       <c r="J258" t="n">
         <v>5.737704918</v>
       </c>
+      <c r="K258" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C259" t="n">
         <v>44</v>
@@ -8700,7 +9483,7 @@
         <v>16</v>
       </c>
       <c r="H259" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I259" t="n">
         <v>30.23</v>
@@ -8708,13 +9491,16 @@
       <c r="J259" t="n">
         <v>2.990033223</v>
       </c>
+      <c r="K259" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C260" t="n">
         <v>46</v>
@@ -8732,7 +9518,7 @@
         <v>16</v>
       </c>
       <c r="H260" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I260" t="n">
         <v>32.79</v>
@@ -8740,13 +9526,16 @@
       <c r="J260" t="n">
         <v>6.284153005</v>
       </c>
+      <c r="K260" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C261" t="n">
         <v>46</v>
@@ -8764,7 +9553,7 @@
         <v>16</v>
       </c>
       <c r="H261" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I261" t="n">
         <v>31.16</v>
@@ -8772,13 +9561,16 @@
       <c r="J261" t="n">
         <v>2.512562814</v>
       </c>
+      <c r="K261" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C262" t="n">
         <v>58</v>
@@ -8796,7 +9588,7 @@
         <v>16</v>
       </c>
       <c r="H262" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I262" t="n">
         <v>37.59</v>
@@ -8804,13 +9596,16 @@
       <c r="J262" t="n">
         <v>9.523809524</v>
       </c>
+      <c r="K262" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C263" t="n">
         <v>27</v>
@@ -8828,7 +9623,7 @@
         <v>17</v>
       </c>
       <c r="H263" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I263" t="n">
         <v>13.04</v>
@@ -8836,13 +9631,16 @@
       <c r="J263" t="n">
         <v>2.77</v>
       </c>
+      <c r="K263" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C264" t="n">
         <v>30</v>
@@ -8860,7 +9658,7 @@
         <v>17</v>
       </c>
       <c r="H264" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I264" t="n">
         <v>22.13</v>
@@ -8868,13 +9666,16 @@
       <c r="J264" t="n">
         <v>3.95</v>
       </c>
+      <c r="K264" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C265" t="n">
         <v>35</v>
@@ -8892,7 +9693,7 @@
         <v>17</v>
       </c>
       <c r="H265" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I265" t="n">
         <v>17.24</v>
@@ -8900,13 +9701,16 @@
       <c r="J265" t="n">
         <v>4.31</v>
       </c>
+      <c r="K265" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C266" t="n">
         <v>54</v>
@@ -8924,7 +9728,7 @@
         <v>17</v>
       </c>
       <c r="H266" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I266" t="n">
         <v>14.33</v>
@@ -8932,13 +9736,16 @@
       <c r="J266" t="n">
         <v>4.14</v>
       </c>
+      <c r="K266" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C267" t="n">
         <v>27</v>
@@ -8956,7 +9763,7 @@
         <v>17</v>
       </c>
       <c r="H267" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I267" t="n">
         <v>44.57</v>
@@ -8964,13 +9771,16 @@
       <c r="J267" t="n">
         <v>6.37</v>
       </c>
+      <c r="K267" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C268" t="n">
         <v>35</v>
@@ -8988,7 +9798,7 @@
         <v>17</v>
       </c>
       <c r="H268" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I268" t="n">
         <v>26.58</v>
@@ -8996,13 +9806,16 @@
       <c r="J268" t="n">
         <v>2.53</v>
       </c>
+      <c r="K268" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C269" t="n">
         <v>54</v>
@@ -9020,7 +9833,7 @@
         <v>17</v>
       </c>
       <c r="H269" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I269" t="n">
         <v>25.74</v>
@@ -9028,13 +9841,16 @@
       <c r="J269" t="n">
         <v>4.64</v>
       </c>
+      <c r="K269" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C270" t="n">
         <v>56</v>
@@ -9052,7 +9868,7 @@
         <v>17</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I270" t="n">
         <v>35.58</v>
@@ -9060,13 +9876,16 @@
       <c r="J270" t="n">
         <v>6.13</v>
       </c>
+      <c r="K270" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C271" t="n">
         <v>36</v>
@@ -9084,7 +9903,7 @@
         <v>17</v>
       </c>
       <c r="H271" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I271" t="n">
         <v>45.13</v>
@@ -9092,13 +9911,16 @@
       <c r="J271" t="n">
         <v>7.47</v>
       </c>
+      <c r="K271" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C272" t="n">
         <v>32</v>
@@ -9116,7 +9938,7 @@
         <v>17</v>
       </c>
       <c r="H272" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I272" t="n">
         <v>28.63</v>
@@ -9124,13 +9946,16 @@
       <c r="J272" t="n">
         <v>4.7</v>
       </c>
+      <c r="K272" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C273" t="n">
         <v>26</v>
@@ -9148,7 +9973,7 @@
         <v>17</v>
       </c>
       <c r="H273" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I273" t="n">
         <v>36.55</v>
@@ -9156,13 +9981,16 @@
       <c r="J273" t="n">
         <v>4.2</v>
       </c>
+      <c r="K273" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C274" t="n">
         <v>29</v>
@@ -9180,7 +10008,7 @@
         <v>17</v>
       </c>
       <c r="H274" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I274" t="n">
         <v>23.93</v>
@@ -9188,13 +10016,16 @@
       <c r="J274" t="n">
         <v>5.98</v>
       </c>
+      <c r="K274" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C275" t="n">
         <v>42</v>
@@ -9212,7 +10043,7 @@
         <v>17</v>
       </c>
       <c r="H275" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I275" t="n">
         <v>38.49</v>
@@ -9220,13 +10051,16 @@
       <c r="J275" t="n">
         <v>4.61</v>
       </c>
+      <c r="K275" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C276" t="n">
         <v>31</v>
@@ -9244,7 +10078,7 @@
         <v>17</v>
       </c>
       <c r="H276" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I276" t="n">
         <v>35.99</v>
@@ -9252,13 +10086,16 @@
       <c r="J276" t="n">
         <v>5.31</v>
       </c>
+      <c r="K276" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C277" t="n">
         <v>43</v>
@@ -9276,7 +10113,7 @@
         <v>17</v>
       </c>
       <c r="H277" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I277" t="n">
         <v>43.04</v>
@@ -9284,13 +10121,16 @@
       <c r="J277" t="n">
         <v>3.56</v>
       </c>
+      <c r="K277" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C278" t="n">
         <v>36</v>
@@ -9308,13 +10148,16 @@
         <v>17</v>
       </c>
       <c r="H278" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I278" t="n">
         <v>45.98</v>
       </c>
       <c r="J278" t="n">
         <v>6.9</v>
+      </c>
+      <c r="K278" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
